--- a/biology/Médecine/Société_française_d'anesthésie_et_de_réanimation/Société_française_d'anesthésie_et_de_réanimation.xlsx
+++ b/biology/Médecine/Société_française_d'anesthésie_et_de_réanimation/Société_française_d'anesthésie_et_de_réanimation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_d%27anesth%C3%A9sie_et_de_r%C3%A9animation</t>
+          <t>Société_française_d'anesthésie_et_de_réanimation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société Française d'Anesthésie et de Réanimation (SFAR) est une société savante reconnue d'utilité publique, régie par la loi de 1901, créée en 1982 par la fusion de la SFAAR (Société française d'anesthésie d'analgésie et de réanimation) et de l'AAF (Association des anesthésistes français). Elle contribue à l’étude, l’avancement et l’enseignement de l’anesthésie et de la réanimation. À ces objectifs statutaires, la SFAR a ajouté en 1988 la sécurité de tous les gestes effectués par les anesthésistes réanimateurs.[réf. nécessaire]
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_d%27anesth%C3%A9sie_et_de_r%C3%A9animation</t>
+          <t>Société_française_d'anesthésie_et_de_réanimation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
